--- a/excel/moex.xlsx
+++ b/excel/moex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workplace\Projects\moex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workplace\Projects\moex\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,17 +158,17 @@
     <t>2099-12-31</t>
   </si>
   <si>
-    <t>Обновлена в:</t>
-  </si>
-  <si>
-    <t>Цена:</t>
+    <t>QUERY_CANDLES</t>
+  </si>
+  <si>
+    <t>СЕГОДНЯ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +240,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -297,14 +320,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -327,6 +344,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -339,9 +357,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,7 +651,8 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,2452 +660,2671 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
     <col min="22" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="66.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:29" ht="58.5" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:29" s="1" customFormat="1">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:29" s="1" customFormat="1">
+      <c r="A4" s="9">
         <v>44161</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="11" t="str">
         <f t="shared" ref="B4:B6" si="0">TEXT(A4,"гггг-ММ-дд")</f>
         <v>2020-11-26</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>251.5</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>185.71</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5260</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>21642</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1149.2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>466.55</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>526.4</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>4986</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14958.5</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5016.8</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>198.16</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1630</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>147.5</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>42.8</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>30.207000000000001</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1253.5999999999999</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>229.25</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5.2350000000000003</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>71.3</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>39.770000000000003</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>125.5</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>87.05</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>317.75</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2730</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>37.064999999999998</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B4&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2255</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:29" s="1" customFormat="1">
+      <c r="A5" s="9">
         <v>44162</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2020-11-27</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>251.18</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>186.03</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5245</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>21800</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1146.4000000000001</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>459.65</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>510.3</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>4995</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14670</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5072.8</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>198.68</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1607.9</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>153.26</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>42.78</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>30.931000000000001</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1247.8</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7874999999999999E-2</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>229.64</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5.2220000000000004</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>72.099999999999994</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>40.045000000000002</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>125.12</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>90.03</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>321</v>
       </c>
-      <c r="AA5" s="16">
+      <c r="AA5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2777.5</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AB5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>36.945</v>
       </c>
-      <c r="AC5" s="16">
+      <c r="AC5" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B5&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2276</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="3" customFormat="1">
-      <c r="A6" s="11">
+    <row r="6" spans="1:29" s="1" customFormat="1">
+      <c r="A6" s="9">
         <v>44165</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2020-11-30</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>249.65</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>182.43</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5031</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>21456</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1119.5999999999999</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>447.55</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>490</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>4947</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14522.5</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5370</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>192.38</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1595.4</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>152.91999999999999</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>42</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>30.757000000000001</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1202</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>229.35</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5.1360000000000001</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>72.180000000000007</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>39.685000000000002</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>140.19999999999999</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>87.95</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>321</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2720.5</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AB6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>35.270000000000003</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AC6" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B6&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2217.1999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>44166</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="11" t="str">
         <f t="shared" ref="B7:B19" si="1">TEXT(A7,"гггг-ММ-дд")</f>
         <v>2020-12-01</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>259.76</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>184.45</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5049</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>21894</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1136</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>444.15</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>491.4</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>4992.5</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14725</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5294</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>194.98</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1672</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>155.19999999999999</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>43.53</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>30.2</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1221.8</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7589999999999998E-2</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>234.33</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>44682</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>71.900000000000006</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>39.784999999999997</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>141.02000000000001</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>89.68</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>324.5</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2808.5</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AB7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>34.9</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B7&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2170.1999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>44167</v>
       </c>
-      <c r="B8" s="13" t="str">
+      <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-02</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>264.99</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>186.97</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5173</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>22952</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1170</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>447</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>509.5</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>4990</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14599</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5217.6000000000004</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>202.9</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1675.5</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>157.9</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>45.36</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>29.774999999999999</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1217.5999999999999</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7920000000000002E-2</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>238.4</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>107869</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>72.02</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>40.450000000000003</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>136.5</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>89.08</v>
       </c>
-      <c r="Z8" s="16">
+      <c r="Z8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>322.3</v>
       </c>
-      <c r="AA8" s="16">
+      <c r="AA8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2837</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AB8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>35.65</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC8" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B8&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2159.6</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>44168</v>
       </c>
-      <c r="B9" s="13" t="str">
+      <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-03</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>263.94</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>186.04</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5048</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>23152</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1147.2</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>436.55</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>493.8</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5000</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14505</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5175</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>191.2</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1670.5</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>159</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>43.9</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>29.85</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1199.2</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7644999999999998E-2</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>239.39</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>44317</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>73.5</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>40</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>138</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>89.94</v>
       </c>
-      <c r="Z9" s="16">
+      <c r="Z9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>319.5</v>
       </c>
-      <c r="AA9" s="16">
+      <c r="AA9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2789</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>35.454999999999998</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B9&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2174</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>44169</v>
       </c>
-      <c r="B10" s="13" t="str">
+      <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-04</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>269.20999999999998</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>189</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5135</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>23154</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1185.5999999999999</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>444.85</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>510</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>4980</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14374</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5090.2</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>191.38</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1621</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>157.72</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>44.5</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>29.759</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1218</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7925E-2</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>244.67</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>42856</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>74.2</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>38.994999999999997</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>139.4</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>91.27</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>317.75</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AA10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2790.5</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AB10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>35.405000000000001</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AC10" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B10&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2146</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>44172</v>
       </c>
-      <c r="B11" s="13" t="str">
+      <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-07</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>275.8</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>191.5</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5062</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>23154</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1169.4000000000001</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>440.4</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>502.1</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5015</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14771</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5007.8</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>197.5</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1629</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>158.18</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>47.28</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>29.492000000000001</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1210</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7644999999999998E-2</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>248.66</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5.1509999999999998</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>73.900000000000006</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>39.229999999999997</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>143.5</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>92.75</v>
       </c>
-      <c r="Z11" s="16">
+      <c r="Z11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>319.05</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AA11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2791.5</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AB11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>35.195</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AC11" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B11&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2111.6</v>
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>44172</v>
       </c>
-      <c r="B12" s="13" t="str">
+      <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-07</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>275.8</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>191.5</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5062</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>23154</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1169.4000000000001</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>440.4</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>502.1</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5015</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14771</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5007.8</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>197.5</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1629</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>158.18</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>47.28</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>29.492000000000001</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1210</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7644999999999998E-2</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>248.66</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5.1509999999999998</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>73.900000000000006</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>39.229999999999997</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>143.5</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>92.75</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="Z12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>319.05</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2791.5</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AB12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>35.195</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AC12" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B12&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2111.6</v>
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>44173</v>
       </c>
-      <c r="B13" s="13" t="str">
+      <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-08</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>275.5</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>190.08</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>4999</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>22808</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1156.8</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>430</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>496.7</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5041</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>15077.5</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5061</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>198.48</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1665.5</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>159.77000000000001</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>47.09</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>29.245000000000001</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1190.2</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7455000000000002E-2</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>248</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5.3319999999999999</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>72.22</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>39.35</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>142</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>92.43</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="Z13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>316.89999999999998</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AA13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2721.5</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AB13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AC13" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B13&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2117</v>
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>44174</v>
       </c>
-      <c r="B14" s="13" t="str">
+      <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-09</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>278.48</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>190.55</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5058</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>23260</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1180</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>437</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>495</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5380</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14530.5</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5188.6000000000004</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>197.52</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1641.5</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>163.24</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>47.13</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>28.725000000000001</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1183.4000000000001</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7510000000000002E-2</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>251.74</v>
       </c>
-      <c r="U14" s="16">
+      <c r="U14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>43926</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>72</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>38.82</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>142.16</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>91.71</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="Z14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>322.75</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AA14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2832.5</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AB14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>34.9</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AC14" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B14&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2122.6</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>44175</v>
       </c>
-      <c r="B15" s="13" t="str">
+      <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-10</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>281.81</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>193.3</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5315.5</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>24050</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1201.4000000000001</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>452.15</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>510.5</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5334</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14382</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5134.8</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>201</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1652.8</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>164.62</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>47.87</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>28.202999999999999</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1230.2</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.8074999999999998E-2</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>251.04</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>721476</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>71.819999999999993</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>39.15</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>138</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>91.94</v>
       </c>
-      <c r="Z15" s="16">
+      <c r="Z15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>324.05</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AA15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2868</v>
       </c>
-      <c r="AB15" s="16">
+      <c r="AB15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>35.585000000000001</v>
       </c>
-      <c r="AC15" s="16">
+      <c r="AC15" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B15&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2098.1999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>44176</v>
       </c>
-      <c r="B16" s="13" t="str">
+      <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-11</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>283.67</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>200.01</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5411</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>23950</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1222</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>447.9</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>509</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5335.5</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14247</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5150</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>203.9</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1642.9</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>167</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>48.594999999999999</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>27.95</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1225</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7819999999999999E-2</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>251.01</v>
       </c>
-      <c r="U16" s="16">
+      <c r="U16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>392758</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>71.260000000000005</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>39.914999999999999</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>145.5</v>
       </c>
-      <c r="Y16" s="16">
+      <c r="Y16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>92.09</v>
       </c>
-      <c r="Z16" s="16">
+      <c r="Z16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>321.2</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AA16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2851</v>
       </c>
-      <c r="AB16" s="16">
+      <c r="AB16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>35.664999999999999</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AC16" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B16&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2094.8000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>44179</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-14</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>279.04000000000002</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>199.6</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5299</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>23946</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1269</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>442.45</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>512.5</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5500.5</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14340</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5062.6000000000004</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>210.2</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1590.2</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>162.5</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>50.67</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>27.175000000000001</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1214.5999999999999</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7830000000000003E-2</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>246.5</v>
       </c>
-      <c r="U17" s="16">
+      <c r="U17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5.2169999999999996</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>70.5</v>
       </c>
-      <c r="W17" s="16">
+      <c r="W17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>40.200000000000003</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>144.44</v>
       </c>
-      <c r="Y17" s="16">
+      <c r="Y17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>90.4</v>
       </c>
-      <c r="Z17" s="16">
+      <c r="Z17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>319</v>
       </c>
-      <c r="AA17" s="16">
+      <c r="AA17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2884</v>
       </c>
-      <c r="AB17" s="16">
+      <c r="AB17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>35.520000000000003</v>
       </c>
-      <c r="AC17" s="16">
+      <c r="AC17" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B17&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2088.4</v>
       </c>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>44180</v>
       </c>
-      <c r="B18" s="13" t="str">
+      <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-15</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>276.47000000000003</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>199.22</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(E$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5230</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(F$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>23508</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(G$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1259</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(H$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>449.9</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(I$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>514.4</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(J$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5492.5</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(K$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>14980</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(L$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>5068.2</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(M$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>209.46</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(N$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1629.4</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(O$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>164.98</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(P$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>51.29</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Q$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>28</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(R$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>1201</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(S$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>3.7650000000000003E-2</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(T$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>243.89</v>
       </c>
-      <c r="U18" s="16">
+      <c r="U18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(U$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>43866</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(V$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>70.08</v>
       </c>
-      <c r="W18" s="16">
+      <c r="W18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(W$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>40.04</v>
       </c>
-      <c r="X18" s="16">
+      <c r="X18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(X$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>142.4</v>
       </c>
-      <c r="Y18" s="16">
+      <c r="Y18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Y$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>92.18</v>
       </c>
-      <c r="Z18" s="16">
+      <c r="Z18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Z$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>319.89999999999998</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AA18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AA$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2897</v>
       </c>
-      <c r="AB18" s="16">
+      <c r="AB18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AB$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>34.884999999999998</v>
       </c>
-      <c r="AC18" s="16">
+      <c r="AC18" s="14">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(AC$27),"//document//data//rows//row[@TRADEDATE='"&amp;$B18&amp;"']/@LEGALCLOSEPRICE"),".",","))</f>
         <v>2081.6</v>
       </c>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>44181</v>
       </c>
-      <c r="B19" s="13" t="str">
+      <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>2020-12-16</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="17">
-        <f ca="1">TODAY()</f>
-        <v>44181</v>
-      </c>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="15">
+      <c r="B20" s="23" t="str">
+        <f ca="1">TEXT(TODAY(),"гггг-ММ-дд")</f>
+        <v>2020-12-18</v>
+      </c>
+      <c r="C20" s="13">
         <f>VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$28),"//document//data//rows//row[1]/@LAST"),".",","))</f>
-        <v>277.7</v>
-      </c>
-      <c r="D20" s="15">
+        <v>273.20999999999998</v>
+      </c>
+      <c r="D20" s="13">
         <f t="shared" ref="D20:AC20" si="2">VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$28),"//document//data//rows//row[1]/@LAST"),".",","))</f>
-        <v>204.25</v>
-      </c>
-      <c r="E20" s="15">
+        <v>209.42</v>
+      </c>
+      <c r="E20" s="13">
         <f t="shared" si="2"/>
-        <v>5143</v>
-      </c>
-      <c r="F20" s="15">
+        <v>5116.5</v>
+      </c>
+      <c r="F20" s="13">
         <f t="shared" si="2"/>
-        <v>23366</v>
-      </c>
-      <c r="G20" s="15">
+        <v>23202</v>
+      </c>
+      <c r="G20" s="13">
         <f t="shared" si="2"/>
-        <v>1263.2</v>
-      </c>
-      <c r="H20" s="15">
+        <v>1247.4000000000001</v>
+      </c>
+      <c r="H20" s="13">
         <f t="shared" si="2"/>
-        <v>440.85</v>
-      </c>
-      <c r="I20" s="15">
+        <v>440.75</v>
+      </c>
+      <c r="I20" s="13">
         <f t="shared" si="2"/>
-        <v>510.4</v>
-      </c>
-      <c r="J20" s="15">
+        <v>508.7</v>
+      </c>
+      <c r="J20" s="13">
         <f t="shared" si="2"/>
-        <v>5429.5</v>
-      </c>
-      <c r="K20" s="15">
+        <v>5461.5</v>
+      </c>
+      <c r="K20" s="13">
         <f t="shared" si="2"/>
-        <v>14725</v>
-      </c>
-      <c r="L20" s="15">
+        <v>15540</v>
+      </c>
+      <c r="L20" s="13">
         <f t="shared" si="2"/>
-        <v>5110</v>
-      </c>
-      <c r="M20" s="15">
+        <v>5187.8</v>
+      </c>
+      <c r="M20" s="13">
         <f t="shared" si="2"/>
-        <v>213.02</v>
-      </c>
-      <c r="N20" s="15">
+        <v>213.48</v>
+      </c>
+      <c r="N20" s="13">
         <f t="shared" si="2"/>
-        <v>1631.2</v>
-      </c>
-      <c r="O20" s="15">
+        <v>1700.4</v>
+      </c>
+      <c r="O20" s="13">
         <f t="shared" si="2"/>
-        <v>162.53</v>
-      </c>
-      <c r="P20" s="15">
+        <v>161.35</v>
+      </c>
+      <c r="P20" s="13">
         <f t="shared" si="2"/>
-        <v>52.5</v>
-      </c>
-      <c r="Q20" s="15">
+        <v>52.05</v>
+      </c>
+      <c r="Q20" s="13">
         <f t="shared" si="2"/>
-        <v>28.689</v>
-      </c>
-      <c r="R20" s="15">
+        <v>28.456</v>
+      </c>
+      <c r="R20" s="13">
         <f t="shared" si="2"/>
-        <v>1181</v>
-      </c>
-      <c r="S20" s="15">
+        <v>1195.4000000000001</v>
+      </c>
+      <c r="S20" s="13">
         <f t="shared" si="2"/>
-        <v>3.8190000000000002E-2</v>
-      </c>
-      <c r="T20" s="15">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="T20" s="13">
         <f t="shared" si="2"/>
-        <v>246.09</v>
-      </c>
-      <c r="U20" s="15">
+        <v>245.1</v>
+      </c>
+      <c r="U20" s="13">
         <f t="shared" si="2"/>
-        <v>5.2469999999999999</v>
-      </c>
-      <c r="V20" s="15">
+        <v>5.2359999999999998</v>
+      </c>
+      <c r="V20" s="13">
         <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="W20" s="15">
+        <v>71.48</v>
+      </c>
+      <c r="W20" s="13">
         <f t="shared" si="2"/>
-        <v>40.130000000000003</v>
-      </c>
-      <c r="X20" s="15">
+        <v>40.204999999999998</v>
+      </c>
+      <c r="X20" s="13">
         <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-      <c r="Y20" s="15">
+        <v>137.5</v>
+      </c>
+      <c r="Y20" s="13">
         <f t="shared" si="2"/>
-        <v>95.9</v>
-      </c>
-      <c r="Z20" s="15">
+        <v>95.85</v>
+      </c>
+      <c r="Z20" s="13">
         <f t="shared" si="2"/>
-        <v>322.14999999999998</v>
-      </c>
-      <c r="AA20" s="15">
+        <v>325.3</v>
+      </c>
+      <c r="AA20" s="13">
         <f t="shared" si="2"/>
-        <v>2860.5</v>
-      </c>
-      <c r="AB20" s="15">
+        <v>2753.5</v>
+      </c>
+      <c r="AB20" s="13">
         <f t="shared" si="2"/>
-        <v>35.274999999999999</v>
-      </c>
-      <c r="AC20" s="15">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="AC20" s="13">
         <f t="shared" si="2"/>
-        <v>2082</v>
+        <v>2038.4</v>
       </c>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="12" t="str">
+      <c r="A21" s="17"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="10" t="str">
         <f>TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$28),"//document//data//rows//row[1]/@UPDATETIME"),"чч:мм:сс")</f>
-        <v>17:28:33</v>
-      </c>
-      <c r="D21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="D21" s="10" t="str">
         <f t="shared" ref="D21:AC21" si="3">TEXT(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$28),"//document//data//rows//row[1]/@UPDATETIME"),"чч:мм:сс")</f>
-        <v>17:28:33</v>
-      </c>
-      <c r="E21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="E21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="F21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="F21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="G21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="G21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="H21" s="12" t="str">
+        <v>12:13:12</v>
+      </c>
+      <c r="H21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="I21" s="12" t="str">
+        <v>12:13:10</v>
+      </c>
+      <c r="I21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="J21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="J21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="K21" s="12" t="str">
+        <v>12:13:10</v>
+      </c>
+      <c r="K21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="L21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="L21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="M21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="M21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="N21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="N21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:32</v>
-      </c>
-      <c r="O21" s="12" t="str">
+        <v>12:13:12</v>
+      </c>
+      <c r="O21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="P21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="P21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="Q21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="Q21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="R21" s="12" t="str">
+        <v>12:13:12</v>
+      </c>
+      <c r="R21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="S21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="S21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="T21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="T21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="U21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="U21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="V21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="V21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:32</v>
-      </c>
-      <c r="W21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="W21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:32</v>
-      </c>
-      <c r="X21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="X21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="Y21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="Y21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="Z21" s="12" t="str">
+        <v>12:13:11</v>
+      </c>
+      <c r="Z21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:25</v>
-      </c>
-      <c r="AA21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="AA21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="AB21" s="12" t="str">
+        <v>12:13:11</v>
+      </c>
+      <c r="AB21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
-      </c>
-      <c r="AC21" s="12" t="str">
+        <v>12:13:14</v>
+      </c>
+      <c r="AC21" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>17:28:33</v>
+        <v>12:13:12</v>
       </c>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="2"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="21"/>
+      <c r="C22" t="str">
+        <f ca="1">IFERROR(VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(C$29),"//document//data//rows//row[@begin='"&amp;$B20&amp;" 18:40:00']/@open"),".",",")),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:AC22" ca="1" si="4">IFERROR(VALUE(SUBSTITUTE(_xlfn.FILTERXML(_xlfn.WEBSERVICE(D$29),"//document//data//rows//row[@begin='"&amp;$B20&amp;" 18:40:00']/@open"),".",",")),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="25" spans="1:29">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="8" t="str">
+      <c r="B25" s="6" t="str">
         <f>$B$4</f>
         <v>2020-11-26</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
     </row>
     <row r="27" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="7" t="str">
-        <f t="shared" ref="C27:AC27" si="4">"http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/"&amp;C$3&amp;".xml?from="&amp;DATE_FROM&amp;"&amp;till="&amp;DATE_TILL&amp;"&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE"</f>
+      <c r="B27" s="2"/>
+      <c r="C27" s="5" t="str">
+        <f t="shared" ref="C27:AC27" si="5">"http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/"&amp;C$3&amp;".xml?from="&amp;DATE_FROM&amp;"&amp;till="&amp;DATE_TILL&amp;"&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE"</f>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/SBER.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="D27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/GAZP.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="E27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/LKOH.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="F27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="F27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/GMKN.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="G27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/CHMF.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="H27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/ROSN.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="I27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/TATN.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="J27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/MGNT.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="K27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="K27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/PLZL.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="L27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="L27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/YNDX.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="M27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="M27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/NLMK.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="N27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="N27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/POLY.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="O27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="O27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/MOEX.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="P27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="P27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/MAGN.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="Q27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="Q27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/AFKS.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="R27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="R27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/NVTK.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="S27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="S27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/VTBR.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="T27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/SBERP.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="U27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="U27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/IRAO.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="V27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="V27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/AFLT.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="W27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="W27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/SNGSP.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="X27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="X27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/DSKY.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="Y27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="Y27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/ALRS.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="Z27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="Z27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/MTSS.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="AA27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="AA27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/FIVE.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="AB27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="AB27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/SNGS.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
-      <c r="AC27" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="AC27" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>http://iss.moex.com/iss/history/engines/stock/markets/shares/boards/TQBR/securities/MAIL.xml?from=2020-11-26&amp;till=2099-12-31&amp;iss.meta=off&amp;history.columns=TRADEDATE,SECID,LEGALCLOSEPRICE</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="25.5" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="7" t="str">
-        <f t="shared" ref="C28:AC28" si="5">"http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities="&amp;C$3&amp;"&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST"</f>
+      <c r="B28" s="2"/>
+      <c r="C28" s="5" t="str">
+        <f>"http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities="&amp;C$3&amp;"&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST"</f>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=SBER&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="D28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="D28" s="5" t="str">
+        <f t="shared" ref="D28:AC28" si="6">"http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities="&amp;D$3&amp;"&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST"</f>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=GAZP&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="E28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=LKOH&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="F28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="F28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=GMKN&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="G28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=CHMF&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="H28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=ROSN&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="I28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=TATN&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="J28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="J28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=MGNT&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="K28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="K28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=PLZL&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="L28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="L28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=YNDX&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="M28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="M28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=NLMK&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="N28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="N28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=POLY&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="O28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="O28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=MOEX&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="P28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="P28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=MAGN&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="Q28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=AFKS&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="R28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="R28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=NVTK&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="S28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="S28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=VTBR&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="T28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="T28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=SBERP&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="U28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="U28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=IRAO&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="V28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="V28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=AFLT&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="W28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="W28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=SNGSP&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="X28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="X28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=DSKY&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="Y28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="Y28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=ALRS&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="Z28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="Z28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=MTSS&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="AA28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="AA28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=FIVE&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="AB28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="AB28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=SNGS&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
-      <c r="AC28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="AC28" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/TQBR/securities.xml?securities=MAIL&amp;iss.only=marketdata&amp;iss.dp=comma&amp;iss.meta=off&amp;marketdata.columns=UPDATETIME,SECID,LAST</v>
       </c>
     </row>
     <row r="29" spans="1:29">
-      <c r="H29" s="1"/>
+      <c r="A29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="str">
+        <f ca="1">"http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/"&amp;C$3&amp;"/candles.xml?from="&amp;$B20&amp;"&amp;candles.columns=open,close,begin"</f>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/SBER/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f t="shared" ref="D29:AC29" ca="1" si="7">"http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/"&amp;D$3&amp;"/candles.xml?from="&amp;$B20&amp;"&amp;candles.columns=open,close,begin"</f>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/GAZP/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="E29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/LKOH/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="F29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/GMKN/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="G29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/CHMF/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="H29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/ROSN/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="I29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/TATN/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="J29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/MGNT/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="K29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/PLZL/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="L29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/YNDX/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="M29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/NLMK/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="N29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/POLY/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="O29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/MOEX/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="P29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/MAGN/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="Q29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/AFKS/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="R29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/NVTK/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="S29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/VTBR/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="T29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/SBERP/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="U29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/IRAO/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="V29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/AFLT/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="W29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/SNGSP/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="X29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/DSKY/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="Y29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/ALRS/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="Z29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/MTSS/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="AA29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/FIVE/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="AB29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/SNGS/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
+      <c r="AC29" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>http://iss.moex.com/iss/engines/stock/markets/shares/boards/tqbr/securities/MAIL/candles.xml?from=2020-12-18&amp;candles.columns=open,close,begin</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A20:A21"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
